--- a/excel/merken.xlsx
+++ b/excel/merken.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25640" windowHeight="27980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -399,6 +399,288 @@
   </si>
   <si>
     <t>tomtom-logo.jpg</t>
+  </si>
+  <si>
+    <t>Azuri</t>
+  </si>
+  <si>
+    <t>azuri.jpg</t>
+  </si>
+  <si>
+    <t>Black Eye</t>
+  </si>
+  <si>
+    <t>blackeya_LOGO.jpg</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>logo_coleman.jpg</t>
+  </si>
+  <si>
+    <t>GOPRO</t>
+  </si>
+  <si>
+    <t>gopro_logo.jpg</t>
+  </si>
+  <si>
+    <t>Logo_Eagle_Creek.jpg</t>
+  </si>
+  <si>
+    <t>Eagle Creak</t>
+  </si>
+  <si>
+    <t>Outdoor Tech</t>
+  </si>
+  <si>
+    <t>outdoortech_logo.jpg</t>
+  </si>
+  <si>
+    <t>Terre Bleue</t>
+  </si>
+  <si>
+    <t>terre_bleue_logo.jpg</t>
+  </si>
+  <si>
+    <t>luckies_web.jpg</t>
+  </si>
+  <si>
+    <t>Luckies</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>amazonas_logo.jpg</t>
+  </si>
+  <si>
+    <t>Deuter</t>
+  </si>
+  <si>
+    <t>deuter_logo.jpg</t>
+  </si>
+  <si>
+    <t>Care Plus</t>
+  </si>
+  <si>
+    <t>careplus_logo.jpg</t>
+  </si>
+  <si>
+    <t>Varta</t>
+  </si>
+  <si>
+    <t>varta_logo.jpg</t>
+  </si>
+  <si>
+    <t>Led lenser</t>
+  </si>
+  <si>
+    <t>ledlenser_logo.jpg</t>
+  </si>
+  <si>
+    <t>rumbl_logo.jpg</t>
+  </si>
+  <si>
+    <t>Rumbl</t>
+  </si>
+  <si>
+    <t>lingadore_logo.jpg</t>
+  </si>
+  <si>
+    <t>Lingadore</t>
+  </si>
+  <si>
+    <t>Molo Kids</t>
+  </si>
+  <si>
+    <t>molokids_logo.jpg</t>
+  </si>
+  <si>
+    <t>Name It</t>
+  </si>
+  <si>
+    <t>nameit_logo.jpg</t>
+  </si>
+  <si>
+    <t>Julbo</t>
+  </si>
+  <si>
+    <t>julbo_logo.jpg</t>
+  </si>
+  <si>
+    <t>Speedo</t>
+  </si>
+  <si>
+    <t>speedo_logo.jpg</t>
+  </si>
+  <si>
+    <t>Quut</t>
+  </si>
+  <si>
+    <t>quut_logo.jpg</t>
+  </si>
+  <si>
+    <t>Havaianas</t>
+  </si>
+  <si>
+    <t>havaianas_logo.jpg</t>
+  </si>
+  <si>
+    <t>Reef</t>
+  </si>
+  <si>
+    <t>reef_logo.jpg</t>
+  </si>
+  <si>
+    <t>Crocs</t>
+  </si>
+  <si>
+    <t>crocs_logo.jpg</t>
+  </si>
+  <si>
+    <t>Ipanema</t>
+  </si>
+  <si>
+    <t>ipanema_logo.jpg</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>rider_logo.jpg</t>
+  </si>
+  <si>
+    <t>Barts</t>
+  </si>
+  <si>
+    <t>barts_logo.jpg</t>
+  </si>
+  <si>
+    <t>J&amp;J Tech</t>
+  </si>
+  <si>
+    <t>j_j_tech_logo.jpg</t>
+  </si>
+  <si>
+    <t>Protest</t>
+  </si>
+  <si>
+    <t>protest_logo.jpg</t>
+  </si>
+  <si>
+    <t>Nivea</t>
+  </si>
+  <si>
+    <t>nivea_logo.jpg</t>
+  </si>
+  <si>
+    <t>Vaude</t>
+  </si>
+  <si>
+    <t>vaude_logo.jpg</t>
+  </si>
+  <si>
+    <t>UAX</t>
+  </si>
+  <si>
+    <t>uax_logo.jpg</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>patagonia_logo.jpg</t>
+  </si>
+  <si>
+    <t>Royal Robins</t>
+  </si>
+  <si>
+    <t>royalrobins_logo.jpg</t>
+  </si>
+  <si>
+    <t>Teva</t>
+  </si>
+  <si>
+    <t>teva_logo.jpg</t>
+  </si>
+  <si>
+    <t>Overstims</t>
+  </si>
+  <si>
+    <t>overstims_logo.jpg</t>
+  </si>
+  <si>
+    <t>Sea To Summit</t>
+  </si>
+  <si>
+    <t>seatosummit_logo_jpg</t>
+  </si>
+  <si>
+    <t>Kite optics</t>
+  </si>
+  <si>
+    <t>kiteoptics_logo.jpg</t>
+  </si>
+  <si>
+    <t>Suunto</t>
+  </si>
+  <si>
+    <t>suunto_logo.jpg</t>
+  </si>
+  <si>
+    <t>Abus</t>
+  </si>
+  <si>
+    <t>abus_logo.jpg</t>
+  </si>
+  <si>
+    <t>Dahon</t>
+  </si>
+  <si>
+    <t>dahon_logo.jpg</t>
+  </si>
+  <si>
+    <t>Casco</t>
+  </si>
+  <si>
+    <t>casco_logo.jpg</t>
+  </si>
+  <si>
+    <t>Batavus</t>
+  </si>
+  <si>
+    <t>batavus_logo.jpg</t>
+  </si>
+  <si>
+    <t>Clarijs</t>
+  </si>
+  <si>
+    <t>clarijs_logo.jpg</t>
+  </si>
+  <si>
+    <t>LiIx</t>
+  </si>
+  <si>
+    <t>liix_logo.jpg</t>
+  </si>
+  <si>
+    <t>odlo_logo.jpg</t>
+  </si>
+  <si>
+    <t>Odlo</t>
+  </si>
+  <si>
+    <t>Camel active</t>
+  </si>
+  <si>
+    <t>camelactive_logo.jpg</t>
+  </si>
+  <si>
+    <t>Lalay</t>
+  </si>
+  <si>
+    <t>lalay_logo_jpg</t>
   </si>
 </sst>
 </file>
@@ -438,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -771,13 +1053,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
@@ -1442,7 +1726,527 @@
         <v>120</v>
       </c>
     </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:C107">
+    <sortCondition ref="A45"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
